--- a/report/facture/rama.xlsx
+++ b/report/facture/rama.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Voucher Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Bill_Details" sheetId="2" r:id="rId5"/>
+    <sheet name="Bill Details" sheetId="2" r:id="rId5"/>
     <sheet name="Worksheet" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>PROVINCE / MVK</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Period</t>
   </si>
   <si>
-    <t>11/2019</t>
+    <t>12/2019</t>
   </si>
   <si>
     <t>ADMINISTRATIVE SECTION</t>
@@ -115,40 +115,964 @@
     <t>Total 85%</t>
   </si>
   <si>
-    <t>2019-11-09</t>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>CPN</t>
+  </si>
+  <si>
+    <t>1986-01-01</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>CYORIBERA Elizabeth</t>
+  </si>
+  <si>
+    <t>MINEDUC</t>
+  </si>
+  <si>
+    <t>1993-01-01</t>
+  </si>
+  <si>
+    <t>Uwiringiyimana Claudine</t>
+  </si>
+  <si>
+    <t>Uwitonze Cyrille</t>
+  </si>
+  <si>
+    <t>1983-01-01</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>uwitonze cyrille</t>
+  </si>
+  <si>
+    <t>10555850G</t>
+  </si>
+  <si>
+    <t>1983-08-17</t>
+  </si>
+  <si>
+    <t>Ndabamenye Jean Damascene</t>
+  </si>
+  <si>
+    <t>RSSB</t>
   </si>
   <si>
     <t>CPC</t>
   </si>
   <si>
-    <t>1990-06-10</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Ruberandinda  Patience</t>
-  </si>
-  <si>
-    <t>Mukandayisenga Annuarite</t>
-  </si>
-  <si>
-    <t>MINEDUC</t>
-  </si>
-  <si>
-    <t>2019-11-17</t>
+    <t>1997-01-01</t>
+  </si>
+  <si>
+    <t>UWINGENEYE Janviere</t>
+  </si>
+  <si>
+    <t>habiyambere Dominique</t>
+  </si>
+  <si>
+    <t>11081513k</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>Nyampinga Felecitte</t>
+  </si>
+  <si>
+    <t>1994-01-01</t>
+  </si>
+  <si>
+    <t>NDACYAYISHIMA Gertulde</t>
+  </si>
+  <si>
+    <t>BARIHAFI Clement</t>
+  </si>
+  <si>
+    <t>1996-01-01</t>
+  </si>
+  <si>
+    <t>IMANISHIMWE Janviere</t>
+  </si>
+  <si>
+    <t>Niringiyimana Janvier</t>
+  </si>
+  <si>
+    <t>DASSO</t>
+  </si>
+  <si>
+    <t>Mutesi Hyacentha</t>
+  </si>
+  <si>
+    <t>1980-01-01</t>
+  </si>
+  <si>
+    <t>Uwiduhaye Jean de Dieu</t>
+  </si>
+  <si>
+    <t>CYORIBERA Elisabeth</t>
+  </si>
+  <si>
+    <t>1977-01-01</t>
+  </si>
+  <si>
+    <t>sindikubwabo esiri</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>gahamanyi sheja Alliance</t>
+  </si>
+  <si>
+    <t>Gahamanyi Nathanael</t>
+  </si>
+  <si>
+    <t>MINALOC</t>
+  </si>
+  <si>
+    <t>2002-11-24</t>
+  </si>
+  <si>
+    <t>shimwa fletcher valencia</t>
+  </si>
+  <si>
+    <t>Ahimana valens</t>
+  </si>
+  <si>
+    <t>MAGERWA</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>2011-06-28</t>
+  </si>
+  <si>
+    <t>bwiza dusabe charmante</t>
+  </si>
+  <si>
+    <t>dusabamahoro vincent</t>
+  </si>
+  <si>
+    <t>2018-09-25</t>
+  </si>
+  <si>
+    <t>mutsinzi oreste</t>
+  </si>
+  <si>
+    <t>niyongira marie josee</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>1979-05-15</t>
+  </si>
+  <si>
+    <t>Nzeyimana Marie Rose</t>
+  </si>
+  <si>
+    <t>11927984N</t>
+  </si>
+  <si>
+    <t>UWONKUNDA ELYSE</t>
+  </si>
+  <si>
+    <t>UWONKUNDA Elyse</t>
+  </si>
+  <si>
+    <t>2019-12-04</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
+  </si>
+  <si>
+    <t>HAKIZIMANA IKUZWE Cedrick</t>
+  </si>
+  <si>
+    <t>NIYONTEZE Marie chantal</t>
+  </si>
+  <si>
+    <t>EP MUSAMO</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>kirezi saba aida</t>
+  </si>
+  <si>
+    <t>sabagirirwa emmanuel</t>
+  </si>
+  <si>
+    <t>isco</t>
+  </si>
+  <si>
+    <t>1988-01-01</t>
+  </si>
+  <si>
+    <t>niyizurugero marie chantal</t>
+  </si>
+  <si>
+    <t>twagirimana faustin</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>NIBASENGE Josee</t>
+  </si>
+  <si>
+    <t>BAGIRUBWIRA Bernard</t>
+  </si>
+  <si>
+    <t>pansion</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>1985-01-01</t>
+  </si>
+  <si>
+    <t>NIYITEGEKA JACQUELINE</t>
+  </si>
+  <si>
+    <t>NTAWUMUVURIRA NORBERT</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>19327443k</t>
+  </si>
+  <si>
+    <t>1987-01-01</t>
+  </si>
+  <si>
+    <t>umfuyisoni beatha</t>
+  </si>
+  <si>
+    <t>2011-06-11</t>
+  </si>
+  <si>
+    <t>igiraneza uwase joyeuse</t>
+  </si>
+  <si>
+    <t>nyiraneza verena</t>
+  </si>
+  <si>
+    <t>minisante</t>
+  </si>
+  <si>
+    <t>2015-07-08</t>
+  </si>
+  <si>
+    <t>nezerwa nazilie edihope</t>
+  </si>
+  <si>
+    <t>kubwumukiza ephron</t>
+  </si>
+  <si>
+    <t>mineduc</t>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>IRUMVA JURU HAPPINESS</t>
+  </si>
+  <si>
+    <t>11177990c</t>
+  </si>
+  <si>
+    <t>1991-01-01</t>
+  </si>
+  <si>
+    <t>mukanyandwi safine</t>
+  </si>
+  <si>
+    <t>mukanyandwi sagfine</t>
+  </si>
+  <si>
+    <t>2017-03-19</t>
+  </si>
+  <si>
+    <t>iyizire ange olivia</t>
+  </si>
+  <si>
+    <t>nsanzimana olivier</t>
+  </si>
+  <si>
+    <t>2019-12-08</t>
+  </si>
+  <si>
+    <t>uyisenga providence</t>
+  </si>
+  <si>
+    <t>cyimana Dieudonne</t>
+  </si>
+  <si>
+    <t>BUNANI VITAL</t>
+  </si>
+  <si>
+    <t>19527984N</t>
+  </si>
+  <si>
+    <t>01563333Y</t>
+  </si>
+  <si>
+    <t>2009-08-31</t>
+  </si>
+  <si>
+    <t>ATETE KALISA BELIGNE</t>
+  </si>
+  <si>
+    <t>KAMANYANA PASCASIE</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>1992-01-01</t>
+  </si>
+  <si>
+    <t>NIYONGIRA Valantine</t>
+  </si>
+  <si>
+    <t>1995-01-01</t>
+  </si>
+  <si>
+    <t>KABANYANA Godlieve</t>
+  </si>
+  <si>
+    <t>19433537E</t>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
+    <t>IRANZI HOPE Delphe</t>
+  </si>
+  <si>
+    <t>MUHIRE JANVIERE</t>
+  </si>
+  <si>
+    <t>NZABONIMANA Emmanuel</t>
+  </si>
+  <si>
+    <t>10859821D</t>
+  </si>
+  <si>
+    <t>IYAKAREMYE COLETTE</t>
+  </si>
+  <si>
+    <t>1973-01-01</t>
+  </si>
+  <si>
+    <t>NYIRINKWAYA Vincent</t>
+  </si>
+  <si>
+    <t>IYAKAREMYE Colette</t>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+  </si>
+  <si>
+    <t>1953-01-01</t>
+  </si>
+  <si>
+    <t>ngendahimana denys</t>
+  </si>
+  <si>
+    <t>pansionne</t>
+  </si>
+  <si>
+    <t>2018-12-18</t>
+  </si>
+  <si>
+    <t>isezerano umukundwa giselle</t>
+  </si>
+  <si>
+    <t>kagina jules maurice</t>
+  </si>
+  <si>
+    <t>MINISANTE</t>
+  </si>
+  <si>
+    <t>2019-12-11</t>
+  </si>
+  <si>
+    <t>tuyishimire janviere</t>
+  </si>
+  <si>
+    <t>11019476N</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>2018-08-05</t>
+  </si>
+  <si>
+    <t>ndamukunda bugingo jean alvin</t>
+  </si>
+  <si>
+    <t>bugingo jean bosco</t>
+  </si>
+  <si>
+    <t>2005-01-01</t>
+  </si>
+  <si>
+    <t>UTUJE AIMEE CONSOLE</t>
+  </si>
+  <si>
+    <t>UMUHOZA CARINE</t>
+  </si>
+  <si>
+    <t>1984-01-01</t>
+  </si>
+  <si>
+    <t>NIMUGIRE BEATHA</t>
+  </si>
+  <si>
+    <t>MBONANKIRA JOEL</t>
+  </si>
+  <si>
+    <t>2019-04-14</t>
+  </si>
+  <si>
+    <t>niyogisubizo mucyo bonheur</t>
+  </si>
+  <si>
+    <t>mukeshimana thamar</t>
+  </si>
+  <si>
+    <t>nyirabukeye judith</t>
+  </si>
+  <si>
+    <t>uwamahoro ruth</t>
+  </si>
+  <si>
+    <t>ndahimana francois</t>
+  </si>
+  <si>
+    <t>2019-12-13</t>
+  </si>
+  <si>
+    <t>NIYOMUSABA Ildephonse</t>
+  </si>
+  <si>
+    <t>ndayishimiye allen</t>
+  </si>
+  <si>
+    <t>TURIKUNKIKO THEOPHAS</t>
+  </si>
+  <si>
+    <t>1960-01-01</t>
+  </si>
+  <si>
+    <t>HABIMANA MURAMA EZECHIEL</t>
+  </si>
+  <si>
+    <t>habimana murama ezechiel</t>
+  </si>
+  <si>
+    <t>UWIMPUHWE Delphine</t>
+  </si>
+  <si>
+    <t>NTAKIRUTINKA Venantie</t>
+  </si>
+  <si>
+    <t>mwezi alain dady</t>
+  </si>
+  <si>
+    <t>mushimiyimana adeline</t>
+  </si>
+  <si>
+    <t>nyiramisago julie</t>
+  </si>
+  <si>
+    <t>TWAGIRIMANA Foustin</t>
+  </si>
+  <si>
+    <t>2019-12-14</t>
+  </si>
+  <si>
+    <t>2019-06-04</t>
+  </si>
+  <si>
+    <t>RUSARO JURU CHANCE AYLA</t>
   </si>
   <si>
     <t>MAT</t>
   </si>
   <si>
-    <t>1990-01-01</t>
-  </si>
-  <si>
-    <t>RIDERMAN</t>
-  </si>
-  <si>
-    <t>MINISPOC</t>
+    <t>1979-01-01</t>
+  </si>
+  <si>
+    <t>MUKANDUTIYE Beatrice</t>
+  </si>
+  <si>
+    <t>mukandutiye beatrice</t>
+  </si>
+  <si>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>nyiransabimana rose</t>
+  </si>
+  <si>
+    <t>nsengimana jmv</t>
+  </si>
+  <si>
+    <t>2003-01-01</t>
+  </si>
+  <si>
+    <t>MUDENDE MANZI Alain</t>
+  </si>
+  <si>
+    <t>NDAYIRENGEYE JONATHAN</t>
+  </si>
+  <si>
+    <t>2019-12-15</t>
+  </si>
+  <si>
+    <t>1969-01-01</t>
+  </si>
+  <si>
+    <t>ntaganda sylivestre</t>
+  </si>
+  <si>
+    <t>mukantabana josee</t>
+  </si>
+  <si>
+    <t>uwayisaba marie chantal</t>
+  </si>
+  <si>
+    <t>10691950M</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>TUYISHIME EMMANUEL</t>
+  </si>
+  <si>
+    <t>MUKANYANDWI SAFINE</t>
+  </si>
+  <si>
+    <t>1989-01-01</t>
+  </si>
+  <si>
+    <t>bakunzi angelique</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>rumuri umuhoza alliece</t>
+  </si>
+  <si>
+    <t>mukagakuru joselyne</t>
+  </si>
+  <si>
+    <t>2011-05-03</t>
+  </si>
+  <si>
+    <t>BAGIRUBWIRA SHAMI QUESLY</t>
+  </si>
+  <si>
+    <t>UWERA ANGELIQUE</t>
+  </si>
+  <si>
+    <t>2019-12-17</t>
+  </si>
+  <si>
+    <t>IGIRANEZA INEZA FILSTON D'OR</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>NEZERWA ZAK EDDY REYNAND</t>
+  </si>
+  <si>
+    <t>KUBWUMUKIZA Ephron</t>
+  </si>
+  <si>
+    <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
+  </si>
+  <si>
+    <t>GANZA CYUZUZO ELVIS</t>
+  </si>
+  <si>
+    <t>CYUZUZO JEAN POUL</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>mushimiyimana marie</t>
+  </si>
+  <si>
+    <t>ngarambe innocent</t>
+  </si>
+  <si>
+    <t>umuhoza aldine</t>
+  </si>
+  <si>
+    <t>isingizwe adam</t>
+  </si>
+  <si>
+    <t>organisation benimpuhwe</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>mpano isheja angela</t>
+  </si>
+  <si>
+    <t>turikumana theophas</t>
+  </si>
+  <si>
+    <t>MUHOZA HONORE BONHEUR</t>
+  </si>
+  <si>
+    <t>NZEYIMANA PIERRE DAMIEN</t>
+  </si>
+  <si>
+    <t>2019-12-19</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>1966-01-01</t>
+  </si>
+  <si>
+    <t>MURWANASHYAKA EMMANUEL</t>
+  </si>
+  <si>
+    <t>MUKANKURUNZIZA</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>NIYIGENERA Salima</t>
+  </si>
+  <si>
+    <t>2019-12-20</t>
+  </si>
+  <si>
+    <t>mukashema sarah</t>
+  </si>
+  <si>
+    <t>niyomugabo theodore</t>
+  </si>
+  <si>
+    <t>10560566z</t>
+  </si>
+  <si>
+    <t>nyiransengimana xaverine</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>niyomusaba celine ubaruta</t>
+  </si>
+  <si>
+    <t>niyomusaba ildephonse</t>
+  </si>
+  <si>
+    <t>millenium saving and investiment</t>
+  </si>
+  <si>
+    <t>tuyishimire esther</t>
+  </si>
+  <si>
+    <t>harerimana abdulkarim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minisante </t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>[bebe] mariyamu soleil</t>
+  </si>
+  <si>
+    <t>mpamyukuri sauveur</t>
+  </si>
+  <si>
+    <t>1974-01-01</t>
+  </si>
+  <si>
+    <t>mukamabano sarah</t>
+  </si>
+  <si>
+    <t>2019-12-21</t>
+  </si>
+  <si>
+    <t>2017-07-06</t>
+  </si>
+  <si>
+    <t>MANZI CYRILLE</t>
+  </si>
+  <si>
+    <t>10749014H</t>
+  </si>
+  <si>
+    <t>BENEGUSENGA DIANNE</t>
+  </si>
+  <si>
+    <t>2019-12-22</t>
+  </si>
+  <si>
+    <t>1975-01-01</t>
+  </si>
+  <si>
+    <t>NYIRAHABIMANA CHRISTINE</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>GATARI SEPT</t>
+  </si>
+  <si>
+    <t>ABIZERA M. TRIPHINE</t>
+  </si>
+  <si>
+    <t>MUKANDAYISENGA JUDITH</t>
+  </si>
+  <si>
+    <t>2015-11-19</t>
+  </si>
+  <si>
+    <t>INEZA SABRINE</t>
+  </si>
+  <si>
+    <t>RUTABINGWA JEAN CLAUDE</t>
+  </si>
+  <si>
+    <t>2019-12-24</t>
+  </si>
+  <si>
+    <t>SANGWA UKWIBISHAKA JEAN DELICE</t>
+  </si>
+  <si>
+    <t>2014-12-16</t>
+  </si>
+  <si>
+    <t>igiraneza rutagarama yosua junia</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>ISIMBI LUCKY PAMELA</t>
+  </si>
+  <si>
+    <t>UWIMBABAZI SPECIOSE</t>
+  </si>
+  <si>
+    <t>NYIRANSABIMANA lphonsine</t>
+  </si>
+  <si>
+    <t>mugemangango foustin</t>
+  </si>
+  <si>
+    <t>ishimwe leonira</t>
+  </si>
+  <si>
+    <t>2019-12-25</t>
+  </si>
+  <si>
+    <t>UWAYO ZIPOLA</t>
+  </si>
+  <si>
+    <t>UWIMPUMBYA FLORIE</t>
+  </si>
+  <si>
+    <t>2014-10-25</t>
+  </si>
+  <si>
+    <t>IRAKOZE NGENZI VIKYRAM</t>
+  </si>
+  <si>
+    <t>MUKARURANGWA DJANAT</t>
+  </si>
+  <si>
+    <t>GASARABWE SOLEIL</t>
+  </si>
+  <si>
+    <t>UMULISA AFISSA</t>
+  </si>
+  <si>
+    <t>2014-04-08</t>
+  </si>
+  <si>
+    <t>ABIZERANYE LUCK ANGELO</t>
+  </si>
+  <si>
+    <t>KAVAMAHANGA J.BOSCO</t>
+  </si>
+  <si>
+    <t>2019-12-26</t>
+  </si>
+  <si>
+    <t>mukeshimana  seraphine</t>
+  </si>
+  <si>
+    <t>ntambara obed</t>
+  </si>
+  <si>
+    <t>2019-12-27</t>
+  </si>
+  <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>byiringiro arsene shalom</t>
+  </si>
+  <si>
+    <t>ndayaho emmanuel</t>
+  </si>
+  <si>
+    <t>19496602m</t>
+  </si>
+  <si>
+    <t>cyizere richard</t>
+  </si>
+  <si>
+    <t>109662075P</t>
+  </si>
+  <si>
+    <t>NTEZIRYAYO GILBERT</t>
+  </si>
+  <si>
+    <t>ABIZERANYE JEAN BOSCO</t>
+  </si>
+  <si>
+    <t>irasubiza hope charlene</t>
+  </si>
+  <si>
+    <t>gahongayire jeanne Darc</t>
+  </si>
+  <si>
+    <t>2019-12-28</t>
+  </si>
+  <si>
+    <t>2019-04-06</t>
+  </si>
+  <si>
+    <t>NIRINGIYIMANA Janvier</t>
+  </si>
+  <si>
+    <t>2016-11-06</t>
+  </si>
+  <si>
+    <t>niyokwizerwa kamikazi Deborah</t>
+  </si>
+  <si>
+    <t>manishimwe israel</t>
+  </si>
+  <si>
+    <t>10800295c</t>
+  </si>
+  <si>
+    <t>1982-01-01</t>
+  </si>
+  <si>
+    <t>kavamahanga jean bosco</t>
+  </si>
+  <si>
+    <t>2017-04-11</t>
+  </si>
+  <si>
+    <t>kiza ijyeno amos Demario</t>
+  </si>
+  <si>
+    <t>irimubenshi donath</t>
+  </si>
+  <si>
+    <t>UWAMAHORO Bernadette</t>
+  </si>
+  <si>
+    <t>URIMUBENSHI Bernadette</t>
+  </si>
+  <si>
+    <t>muragijimana Deborah</t>
+  </si>
+  <si>
+    <t>GANZA CYUZUZO Elvis</t>
+  </si>
+  <si>
+    <t>UWAMARAYIKA Solange</t>
+  </si>
+  <si>
+    <t>imanaturikumwe jean nepomuscene</t>
+  </si>
+  <si>
+    <t>2019-12-29</t>
+  </si>
+  <si>
+    <t>umufasha placidia</t>
+  </si>
+  <si>
+    <t>MANISHIMWE ISRAEL</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>mukamurera oliva</t>
+  </si>
+  <si>
+    <t>gasigwa evarde</t>
+  </si>
+  <si>
+    <t>MUSHIMIYIMANA ODETTE</t>
+  </si>
+  <si>
+    <t>NKURUNZIZA CHARLES</t>
+  </si>
+  <si>
+    <t>1981-01-01</t>
+  </si>
+  <si>
+    <t>NTAKIRUTIMANA JOSEPH</t>
+  </si>
+  <si>
+    <t>NZAYISENGA SOPHIE</t>
+  </si>
+  <si>
+    <t>[BEBE]UWANYIRIGIRA JEANNETTE</t>
+  </si>
+  <si>
+    <t>BARAMBANZA ILDEPHONSE</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>atete norah blessing</t>
+  </si>
+  <si>
+    <t>mukaremera christine</t>
   </si>
   <si>
     <t>TOTAL 100%</t>
@@ -157,7 +1081,7 @@
     <t>TOTAL 85%</t>
   </si>
   <si>
-    <t>Prepared By: Ruberandinda Patience</t>
+    <t>Prepared By: M. Saphina</t>
   </si>
 </sst>
 </file>
@@ -571,32 +1495,32 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="S134" sqref="S134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="10.997314" bestFit="true" customWidth="true" style="0"/>
-    <col min="1" max="1" width="2.999268" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.999023" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="7.998047" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.99707" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.99707" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.997314" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="4.998779" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="22.994385" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="24.993896" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11.99707" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="31.992188" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="32.991943" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="7.998047" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="7.998047" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.997803" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="7.998047" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="4.998779" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="10.997314" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="11.99707" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="7.998047" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.997559" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.997559" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -760,11 +1684,9 @@
       <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7">
-        <v>4578954</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7">
-        <v>15691275</v>
+        <v>150973</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>34</v>
@@ -776,35 +1698,35 @@
         <v>36</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K8" s="7">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="L8" s="7">
-        <v>1181</v>
+        <v>2646</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7">
         <v>0</v>
       </c>
       <c r="O8" s="7">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="R8" s="7">
-        <v>3405</v>
+        <v>3847</v>
       </c>
       <c r="S8" s="10">
-        <v>2894.25</v>
+        <v>3269.95</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -812,146 +1734,6931 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7">
-        <v>98765</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7">
-        <v>3444576</v>
+        <v>15671385</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>2646</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7">
         <v>0</v>
       </c>
       <c r="O9" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>1281</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="7">
-        <v>3729</v>
+        <v>360</v>
       </c>
       <c r="R9" s="7">
-        <v>5385</v>
+        <v>3765</v>
       </c>
       <c r="S9" s="10">
-        <v>4577.25</v>
+        <v>3200.25</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="E10" s="7">
+        <v>36242</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7">
+        <v>750</v>
+      </c>
+      <c r="L10" s="7">
+        <v>873</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1623</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1379.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="7">
+        <v>750</v>
+      </c>
+      <c r="L11" s="7">
+        <v>873</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1623</v>
+      </c>
+      <c r="S11" s="10">
+        <v>1379.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>15715148</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="7">
+        <v>750</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2531</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1875</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>5156</v>
+      </c>
+      <c r="S12" s="10">
+        <v>4382.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7">
+        <v>750</v>
+      </c>
+      <c r="L13" s="7">
+        <v>3628</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1028</v>
+      </c>
+      <c r="R13" s="7">
+        <v>5433</v>
+      </c>
+      <c r="S13" s="10">
+        <v>4618.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>15719366</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="7">
+        <v>750</v>
+      </c>
+      <c r="L14" s="7">
+        <v>2531</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>3281</v>
+      </c>
+      <c r="S14" s="10">
+        <v>2788.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>15733227</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="7">
+        <v>750</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>750</v>
+      </c>
+      <c r="S15" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1838030</v>
+      </c>
+      <c r="E16" s="7">
+        <v>15744617</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="7">
+        <v>750</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2646</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>383</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>360</v>
+      </c>
+      <c r="R16" s="7">
+        <v>4139</v>
+      </c>
+      <c r="S16" s="10">
+        <v>3518.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1838031</v>
+      </c>
+      <c r="E17" s="7">
+        <v>15584817</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="7">
+        <v>750</v>
+      </c>
+      <c r="L17" s="7">
+        <v>873</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1623</v>
+      </c>
+      <c r="S17" s="10">
+        <v>1379.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1838032</v>
+      </c>
+      <c r="E18" s="7">
+        <v>24278</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="7">
+        <v>750</v>
+      </c>
+      <c r="L18" s="7">
+        <v>506</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>273</v>
+      </c>
+      <c r="R18" s="7">
+        <v>1547</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1314.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1838033</v>
+      </c>
+      <c r="E19" s="7">
+        <v>15698695</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="7">
+        <v>750</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1772</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1469</v>
+      </c>
+      <c r="R19" s="7">
+        <v>4000</v>
+      </c>
+      <c r="S19" s="10">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1838034</v>
+      </c>
+      <c r="E20" s="7">
+        <v>15750710</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7">
+        <v>750</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>750</v>
+      </c>
+      <c r="P20" s="7">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1582</v>
+      </c>
+      <c r="S20" s="10">
+        <v>1344.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <v>15750710</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="7">
+        <v>750</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>82</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7">
+        <v>832</v>
+      </c>
+      <c r="S21" s="10">
+        <v>707.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>15519664</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="7">
+        <v>750</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>616</v>
+      </c>
+      <c r="R22" s="7">
+        <v>1393</v>
+      </c>
+      <c r="S22" s="10">
+        <v>1184.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="3">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
+        <v>15749883</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="7">
+        <v>750</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>547</v>
+      </c>
+      <c r="R23" s="7">
+        <v>1306</v>
+      </c>
+      <c r="S23" s="10">
+        <v>1110.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>29753</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="7">
+        <v>750</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>750</v>
+      </c>
+      <c r="S24" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1838037</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="7">
+        <v>750</v>
+      </c>
+      <c r="L25" s="7">
+        <v>506</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>296</v>
+      </c>
+      <c r="R25" s="7">
+        <v>1579</v>
+      </c>
+      <c r="S25" s="10">
+        <v>1342.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>2538402</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="7">
+        <v>750</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>2280</v>
+      </c>
+      <c r="R26" s="7">
+        <v>3039</v>
+      </c>
+      <c r="S26" s="10">
+        <v>2583.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
+        <v>15635010</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" s="7">
+        <v>750</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>1692</v>
+      </c>
+      <c r="R27" s="7">
+        <v>2460</v>
+      </c>
+      <c r="S27" s="10">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>15584469</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="7">
+        <v>750</v>
+      </c>
+      <c r="L28" s="7">
+        <v>1097</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1364</v>
+      </c>
+      <c r="R28" s="7">
+        <v>3247</v>
+      </c>
+      <c r="S28" s="10">
+        <v>2759.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="3">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>15661025</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="7">
+        <v>750</v>
+      </c>
+      <c r="L29" s="7">
+        <v>1181</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>694</v>
+      </c>
+      <c r="R29" s="7">
+        <v>2643</v>
+      </c>
+      <c r="S29" s="10">
+        <v>2246.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1838100</v>
+      </c>
+      <c r="E30" s="7">
+        <v>15567112</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="7">
+        <v>750</v>
+      </c>
+      <c r="L30" s="7">
+        <v>591</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>91</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>360</v>
+      </c>
+      <c r="R30" s="7">
+        <v>1792</v>
+      </c>
+      <c r="S30" s="10">
+        <v>1523.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="7">
+        <v>750</v>
+      </c>
+      <c r="L31" s="7">
+        <v>591</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>173</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>1514</v>
+      </c>
+      <c r="S31" s="10">
+        <v>1286.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
+        <v>3684903</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="7">
+        <v>750</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>610</v>
+      </c>
+      <c r="R32" s="7">
+        <v>1378</v>
+      </c>
+      <c r="S32" s="10">
+        <v>1171.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <v>15610594</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="7">
+        <v>750</v>
+      </c>
+      <c r="L33" s="7">
+        <v>1181</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>538</v>
+      </c>
+      <c r="R33" s="7">
+        <v>2496</v>
+      </c>
+      <c r="S33" s="10">
+        <v>2121.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>15731847</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" s="7">
+        <v>121637</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="7">
+        <v>750</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>547</v>
+      </c>
+      <c r="R34" s="7">
+        <v>1306</v>
+      </c>
+      <c r="S34" s="10">
+        <v>1110.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="3">
+        <v>28</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="7">
+        <v>750</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>990</v>
+      </c>
+      <c r="R35" s="7">
+        <v>1758</v>
+      </c>
+      <c r="S35" s="10">
+        <v>1494.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
+        <v>15670398</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="7">
+        <v>750</v>
+      </c>
+      <c r="L36" s="7">
+        <v>506</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>481</v>
+      </c>
+      <c r="R36" s="7">
+        <v>1755</v>
+      </c>
+      <c r="S36" s="10">
+        <v>1491.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7">
+        <v>15714879</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="7">
         <v>900</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L37" s="7">
+        <v>3797</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>1128</v>
+      </c>
+      <c r="R37" s="7">
+        <v>5843</v>
+      </c>
+      <c r="S37" s="10">
+        <v>4966.55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7">
+        <v>108560575</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="7">
+        <v>900</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>900</v>
+      </c>
+      <c r="S38" s="10">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="3">
+        <v>32</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="7">
+        <v>900</v>
+      </c>
+      <c r="L39" s="7">
         <v>1181</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1125</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="M39" s="7"/>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>387</v>
+      </c>
+      <c r="R39" s="7">
+        <v>2477</v>
+      </c>
+      <c r="S39" s="10">
+        <v>2105.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="3">
+        <v>33</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1838021</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="7">
+        <v>900</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>900</v>
+      </c>
+      <c r="S40" s="10">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="3">
+        <v>34</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7">
+        <v>1.1992700849352E+15</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="7">
+        <v>15660510</v>
+      </c>
+      <c r="K41" s="7">
+        <v>750</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1014</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>173</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>360</v>
+      </c>
+      <c r="R41" s="7">
+        <v>2297</v>
+      </c>
+      <c r="S41" s="10">
+        <v>1952.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="3">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7">
+        <v>1.1995700388052E+15</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K42" s="7">
+        <v>750</v>
+      </c>
+      <c r="L42" s="7">
+        <v>1097</v>
+      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>753</v>
+      </c>
+      <c r="R42" s="7">
+        <v>2618</v>
+      </c>
+      <c r="S42" s="10">
+        <v>2225.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="3">
+        <v>36</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7">
+        <v>11</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="7">
+        <v>12213401</v>
+      </c>
+      <c r="K43" s="7">
+        <v>750</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>750</v>
+      </c>
+      <c r="R43" s="7">
+        <v>1518</v>
+      </c>
+      <c r="S43" s="10">
+        <v>1290.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7">
+        <v>1.1988800021941E+15</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K44" s="7">
+        <v>750</v>
+      </c>
+      <c r="L44" s="7">
+        <v>423</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>164</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>1337</v>
+      </c>
+      <c r="S44" s="10">
+        <v>1136.45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
+        <v>126768</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" s="7">
+        <v>750</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1014</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>173</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>360</v>
+      </c>
+      <c r="R45" s="7">
+        <v>2297</v>
+      </c>
+      <c r="S45" s="10">
+        <v>1952.45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="3">
+        <v>39</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7">
+        <v>1.197380033979E+15</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J46" s="7">
+        <v>15587490</v>
+      </c>
+      <c r="K46" s="7">
+        <v>750</v>
+      </c>
+      <c r="L46" s="7">
+        <v>423</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>164</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>1337</v>
+      </c>
+      <c r="S46" s="10">
+        <v>1136.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="3">
+        <v>40</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7">
+        <v>91285</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K47" s="7">
+        <v>750</v>
+      </c>
+      <c r="L47" s="7">
+        <v>2500</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>1554</v>
+      </c>
+      <c r="R47" s="7">
+        <v>4813</v>
+      </c>
+      <c r="S47" s="10">
+        <v>4091.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="3">
+        <v>41</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
+        <v>15734120</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K48" s="7">
+        <v>750</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>753</v>
+      </c>
+      <c r="R48" s="7">
+        <v>1521</v>
+      </c>
+      <c r="S48" s="10">
+        <v>1292.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="3">
+        <v>42</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
+        <v>15622124</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" s="7">
+        <v>750</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <v>800</v>
+      </c>
+      <c r="S49" s="10">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="3">
+        <v>43</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
+        <v>15719054</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="7">
+        <v>750</v>
+      </c>
+      <c r="L50" s="7">
+        <v>675</v>
+      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>1425</v>
+      </c>
+      <c r="S50" s="10">
+        <v>1211.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="3">
+        <v>44</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7">
+        <v>3046001</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" s="7">
+        <v>750</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>990</v>
+      </c>
+      <c r="R51" s="7">
+        <v>1758</v>
+      </c>
+      <c r="S51" s="10">
+        <v>1494.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="3">
+        <v>45</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7">
+        <v>2964500</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="7">
+        <v>750</v>
+      </c>
+      <c r="L52" s="7">
+        <v>591</v>
+      </c>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>173</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>456</v>
+      </c>
+      <c r="R52" s="7">
+        <v>1970</v>
+      </c>
+      <c r="S52" s="10">
+        <v>1674.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="3">
+        <v>46</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7">
+        <v>15746519</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="7">
+        <v>750</v>
+      </c>
+      <c r="L53" s="7">
+        <v>675</v>
+      </c>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>803</v>
+      </c>
+      <c r="R53" s="7">
+        <v>2237</v>
+      </c>
+      <c r="S53" s="10">
+        <v>1901.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="3">
+        <v>47</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7">
+        <v>28851</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="7">
+        <v>750</v>
+      </c>
+      <c r="L54" s="7">
+        <v>591</v>
+      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <v>91</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>456</v>
+      </c>
+      <c r="R54" s="7">
+        <v>1888</v>
+      </c>
+      <c r="S54" s="10">
+        <v>1604.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="3">
+        <v>48</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7">
+        <v>15743364</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K55" s="7">
+        <v>750</v>
+      </c>
+      <c r="L55" s="7">
+        <v>591</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="7">
+        <v>173</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>450</v>
+      </c>
+      <c r="R55" s="7">
+        <v>1964</v>
+      </c>
+      <c r="S55" s="10">
+        <v>1669.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="3">
+        <v>49</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7">
+        <v>1.197380022208E+15</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J56" s="7">
+        <v>35936</v>
+      </c>
+      <c r="K56" s="7">
+        <v>750</v>
+      </c>
+      <c r="L56" s="7">
+        <v>1181</v>
+      </c>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>510</v>
+      </c>
+      <c r="R56" s="7">
+        <v>2459</v>
+      </c>
+      <c r="S56" s="10">
+        <v>2090.15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="3">
+        <v>50</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7">
+        <v>1.199670062436E+15</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J57" s="7">
+        <v>15704053</v>
+      </c>
+      <c r="K57" s="7">
+        <v>750</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <v>750</v>
+      </c>
+      <c r="S57" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="3">
+        <v>51</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7">
+        <v>1.1960800119891E+15</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58" s="7">
+        <v>25609</v>
+      </c>
+      <c r="K58" s="7">
+        <v>750</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0</v>
+      </c>
+      <c r="R58" s="7">
+        <v>750</v>
+      </c>
+      <c r="S58" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="3">
+        <v>52</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7">
+        <v>1.1997701074E+15</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" s="7">
+        <v>2724704</v>
+      </c>
+      <c r="K59" s="7">
+        <v>750</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>225</v>
+      </c>
+      <c r="P59" s="7">
+        <v>578</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>1587</v>
+      </c>
+      <c r="R59" s="7">
+        <v>3140</v>
+      </c>
+      <c r="S59" s="10">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="3">
+        <v>53</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7">
+        <v>1111</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J60" s="7">
+        <v>4230005</v>
+      </c>
+      <c r="K60" s="7">
+        <v>750</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+      <c r="P60" s="7">
+        <v>59</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>300</v>
+      </c>
+      <c r="R60" s="7">
+        <v>1109</v>
+      </c>
+      <c r="S60" s="10">
+        <v>942.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="3">
+        <v>54</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1838068</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1.197370020193E+15</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J61" s="7">
+        <v>116527</v>
+      </c>
+      <c r="K61" s="7">
+        <v>750</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+      <c r="P61" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>1000</v>
+      </c>
+      <c r="R61" s="7">
+        <v>1777</v>
+      </c>
+      <c r="S61" s="10">
+        <v>1510.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="3">
+        <v>55</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1838070</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1.198870045937E+15</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="7">
+        <v>750</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>750</v>
+      </c>
+      <c r="S62" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="3">
+        <v>56</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7">
+        <v>111</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7">
+        <v>900</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>511</v>
+      </c>
+      <c r="R63" s="7">
+        <v>1411</v>
+      </c>
+      <c r="S63" s="10">
+        <v>1199.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="3">
+        <v>57</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="7">
+        <v>1838075</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1.1979701002831E+15</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" s="7">
+        <v>23186</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="L64" s="7">
+        <v>1041</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7">
+        <v>2213</v>
+      </c>
+      <c r="P64" s="7">
+        <v>1470</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>695</v>
+      </c>
+      <c r="R64" s="7">
+        <v>5419</v>
+      </c>
+      <c r="S64" s="10">
+        <v>4606.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="3">
+        <v>58</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1838076</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1.1970700181381E+15</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J65" s="7">
+        <v>2551500</v>
+      </c>
+      <c r="K65" s="7">
+        <v>900</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
+        <v>36</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>1210</v>
+      </c>
+      <c r="R65" s="7">
+        <v>2146</v>
+      </c>
+      <c r="S65" s="10">
+        <v>1824.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="3">
+        <v>59</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1838077</v>
+      </c>
+      <c r="E66" s="7">
+        <v>111</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J66" s="7">
+        <v>15660041</v>
+      </c>
+      <c r="K66" s="7">
+        <v>900</v>
+      </c>
+      <c r="L66" s="7">
+        <v>1181</v>
+      </c>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>108</v>
+      </c>
+      <c r="R66" s="7">
+        <v>2207</v>
+      </c>
+      <c r="S66" s="10">
+        <v>1875.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="3">
+        <v>60</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7">
+        <v>23186</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J67" s="7">
+        <v>23186</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7">
+        <v>2213</v>
+      </c>
+      <c r="P67" s="7">
+        <v>1578</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>695</v>
+      </c>
+      <c r="R67" s="7">
+        <v>4486</v>
+      </c>
+      <c r="S67" s="10">
+        <v>3813.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="3">
+        <v>61</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7">
+        <v>1.196980015429E+15</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J68" s="7">
+        <v>2493600</v>
+      </c>
+      <c r="K68" s="7">
+        <v>900</v>
+      </c>
+      <c r="L68" s="7">
+        <v>675</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>660</v>
+      </c>
+      <c r="R68" s="7">
+        <v>2253</v>
+      </c>
+      <c r="S68" s="10">
+        <v>1915.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="3">
+        <v>62</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1838031</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1.1983700188E+15</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K69" s="7">
+        <v>900</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>840</v>
+      </c>
+      <c r="R69" s="7">
+        <v>1749</v>
+      </c>
+      <c r="S69" s="10">
+        <v>1486.65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="3">
+        <v>63</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7">
+        <v>15740333</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K70" s="7">
+        <v>750</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>14400</v>
+      </c>
+      <c r="R70" s="7">
+        <v>15150</v>
+      </c>
+      <c r="S70" s="10">
+        <v>12877.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="3">
+        <v>64</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7">
+        <v>142968</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K71" s="7">
+        <v>750</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7">
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+      <c r="P71" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>1770</v>
+      </c>
+      <c r="R71" s="7">
+        <v>2547</v>
+      </c>
+      <c r="S71" s="10">
+        <v>2164.95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="3">
+        <v>65</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7">
+        <v>130479</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" s="7">
+        <v>750</v>
+      </c>
+      <c r="L72" s="7">
+        <v>3206</v>
+      </c>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+      <c r="P72" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>73</v>
+      </c>
+      <c r="R72" s="7">
+        <v>4047</v>
+      </c>
+      <c r="S72" s="10">
+        <v>3439.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="3">
+        <v>66</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7">
+        <v>25609</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J73" s="7">
+        <v>25609</v>
+      </c>
+      <c r="K73" s="7">
+        <v>750</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7">
+        <v>0</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+      <c r="P73" s="7">
+        <v>36</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>903</v>
+      </c>
+      <c r="R73" s="7">
+        <v>1689</v>
+      </c>
+      <c r="S73" s="10">
+        <v>1435.65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="3">
+        <v>67</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7">
+        <v>15723295</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K74" s="7">
+        <v>750</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>511</v>
+      </c>
+      <c r="R74" s="7">
+        <v>1261</v>
+      </c>
+      <c r="S74" s="10">
+        <v>1071.85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="3">
+        <v>68</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7">
+        <v>15535622</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" s="7">
+        <v>750</v>
+      </c>
+      <c r="L75" s="7">
+        <v>2870</v>
+      </c>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7">
+        <v>0</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+      <c r="P75" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>690</v>
+      </c>
+      <c r="R75" s="7">
+        <v>4319</v>
+      </c>
+      <c r="S75" s="10">
+        <v>3671.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="3">
+        <v>69</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7">
+        <v>111</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7">
+        <v>750</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+      <c r="P76" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>1140</v>
+      </c>
+      <c r="R76" s="7">
+        <v>1908</v>
+      </c>
+      <c r="S76" s="10">
+        <v>1621.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="3">
+        <v>70</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7">
+        <v>222</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" s="7">
+        <v>750</v>
+      </c>
+      <c r="L77" s="7">
+        <v>0</v>
+      </c>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>1436</v>
+      </c>
+      <c r="R77" s="7">
+        <v>2195</v>
+      </c>
+      <c r="S77" s="10">
+        <v>1865.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="3">
+        <v>71</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7">
+        <v>15709340</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="7">
+        <v>750</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>1279</v>
+      </c>
+      <c r="R78" s="7">
+        <v>2056</v>
+      </c>
+      <c r="S78" s="10">
+        <v>1747.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="3">
+        <v>72</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7">
+        <v>2706800</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" s="7">
+        <v>750</v>
+      </c>
+      <c r="L79" s="7">
+        <v>675</v>
+      </c>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+      <c r="P79" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>768</v>
+      </c>
+      <c r="R79" s="7">
+        <v>2220</v>
+      </c>
+      <c r="S79" s="10">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="3">
+        <v>73</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7">
+        <v>15734083</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K80" s="7">
+        <v>750</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7">
+        <v>625</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
         <v>1375</v>
       </c>
-      <c r="Q10" s="7">
-        <v>4209</v>
-      </c>
-      <c r="R10" s="7">
-        <v>8790</v>
-      </c>
-      <c r="S10" s="10">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <v>765</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1003.85</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>956.25</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="S80" s="10">
         <v>1168.75</v>
       </c>
-      <c r="Q11" s="8">
-        <v>3577.65</v>
-      </c>
-      <c r="R11" s="8">
-        <v>7471.5</v>
-      </c>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="3">
+        <v>74</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7">
+        <v>15748128</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" s="7">
+        <v>750</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7">
+        <v>750</v>
+      </c>
+      <c r="P81" s="7">
+        <v>547</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>715</v>
+      </c>
+      <c r="R81" s="7">
+        <v>2762</v>
+      </c>
+      <c r="S81" s="10">
+        <v>2347.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="3">
+        <v>75</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7">
+        <v>25609</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82" s="7">
+        <v>25609</v>
+      </c>
+      <c r="K82" s="7">
+        <v>750</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0</v>
+      </c>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+      <c r="P82" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>0</v>
+      </c>
+      <c r="R82" s="7">
+        <v>750</v>
+      </c>
+      <c r="S82" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="3">
+        <v>76</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7">
+        <v>15692634</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" s="7">
+        <v>750</v>
+      </c>
+      <c r="L83" s="7">
+        <v>506</v>
+      </c>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>1240</v>
+      </c>
+      <c r="R83" s="7">
+        <v>2505</v>
+      </c>
+      <c r="S83" s="10">
+        <v>2129.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="3">
+        <v>77</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7">
+        <v>8797500</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K84" s="7">
+        <v>750</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0</v>
+      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>750</v>
+      </c>
+      <c r="P84" s="7">
+        <v>164</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>1664</v>
+      </c>
+      <c r="S84" s="10">
+        <v>1414.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="3">
+        <v>78</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1838097</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1.1987701745423E+15</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J85" s="7">
+        <v>145245</v>
+      </c>
+      <c r="K85" s="7">
+        <v>750</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0</v>
+      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>366</v>
+      </c>
+      <c r="R85" s="7">
+        <v>1207</v>
+      </c>
+      <c r="S85" s="10">
+        <v>1025.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="3">
+        <v>79</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7">
+        <v>15609708</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K86" s="7">
+        <v>750</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>2025</v>
+      </c>
+      <c r="P86" s="7">
+        <v>204</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>468</v>
+      </c>
+      <c r="R86" s="7">
+        <v>3447</v>
+      </c>
+      <c r="S86" s="10">
+        <v>2929.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="3">
+        <v>80</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7">
+        <v>3684903</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K87" s="7">
+        <v>750</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>0</v>
+      </c>
+      <c r="R87" s="7">
+        <v>750</v>
+      </c>
+      <c r="S87" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="3">
+        <v>81</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" s="7">
+        <v>750</v>
+      </c>
+      <c r="L88" s="7">
+        <v>506</v>
+      </c>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+      <c r="P88" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>1375</v>
+      </c>
+      <c r="R88" s="7">
+        <v>2649</v>
+      </c>
+      <c r="S88" s="10">
+        <v>2251.65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="3">
+        <v>82</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7">
+        <v>3593601</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K89" s="7">
+        <v>750</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>1039</v>
+      </c>
+      <c r="R89" s="7">
+        <v>1816</v>
+      </c>
+      <c r="S89" s="10">
+        <v>1543.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="3">
+        <v>83</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7">
+        <v>15660125</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K90" s="7">
+        <v>750</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>750</v>
+      </c>
+      <c r="S90" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="3">
+        <v>84</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7">
+        <v>15734839</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K91" s="7">
+        <v>750</v>
+      </c>
+      <c r="L91" s="7">
+        <v>675</v>
+      </c>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7">
+        <v>0</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>989</v>
+      </c>
+      <c r="R91" s="7">
+        <v>2414</v>
+      </c>
+      <c r="S91" s="10">
+        <v>2051.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="3">
+        <v>85</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7">
+        <v>24939</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" s="7">
+        <v>750</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>1875</v>
+      </c>
+      <c r="P92" s="7">
+        <v>374</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>0</v>
+      </c>
+      <c r="R92" s="7">
+        <v>2999</v>
+      </c>
+      <c r="S92" s="10">
+        <v>2549.15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="3">
+        <v>86</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7">
+        <v>15679254</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7">
+        <v>900</v>
+      </c>
+      <c r="L93" s="7">
+        <v>1181</v>
+      </c>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7">
+        <v>0</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+      <c r="P93" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>175</v>
+      </c>
+      <c r="R93" s="7">
+        <v>2274</v>
+      </c>
+      <c r="S93" s="10">
+        <v>1932.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="3">
+        <v>87</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7">
+        <v>900</v>
+      </c>
+      <c r="L94" s="7">
+        <v>4895</v>
+      </c>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7">
+        <v>0</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+      <c r="P94" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>0</v>
+      </c>
+      <c r="R94" s="7">
+        <v>5795</v>
+      </c>
+      <c r="S94" s="10">
+        <v>4925.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="3">
+        <v>88</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7">
+        <v>10203553</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" s="7">
+        <v>900</v>
+      </c>
+      <c r="L95" s="7">
+        <v>1182</v>
+      </c>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7">
+        <v>0</v>
+      </c>
+      <c r="O95" s="7">
+        <v>0</v>
+      </c>
+      <c r="P95" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>1314</v>
+      </c>
+      <c r="R95" s="7">
+        <v>3423</v>
+      </c>
+      <c r="S95" s="10">
+        <v>2909.55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="3">
+        <v>89</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7">
+        <v>15596205</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" s="7">
+        <v>750</v>
+      </c>
+      <c r="L96" s="7">
+        <v>873</v>
+      </c>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7">
+        <v>0</v>
+      </c>
+      <c r="P96" s="7">
+        <v>164</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>0</v>
+      </c>
+      <c r="R96" s="7">
+        <v>1787</v>
+      </c>
+      <c r="S96" s="10">
+        <v>1518.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="3">
+        <v>90</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7">
+        <v>30482</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K97" s="7">
+        <v>750</v>
+      </c>
+      <c r="L97" s="7">
+        <v>1464</v>
+      </c>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7">
+        <v>0</v>
+      </c>
+      <c r="O97" s="7">
+        <v>0</v>
+      </c>
+      <c r="P97" s="7">
+        <v>173</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>360</v>
+      </c>
+      <c r="R97" s="7">
+        <v>2747</v>
+      </c>
+      <c r="S97" s="10">
+        <v>2334.95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="3">
+        <v>91</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7">
+        <v>128134</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" s="7">
+        <v>750</v>
+      </c>
+      <c r="L98" s="7">
+        <v>591</v>
+      </c>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7">
+        <v>0</v>
+      </c>
+      <c r="O98" s="7">
+        <v>0</v>
+      </c>
+      <c r="P98" s="7">
+        <v>173</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>366</v>
+      </c>
+      <c r="R98" s="7">
+        <v>1880</v>
+      </c>
+      <c r="S98" s="10">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="3">
+        <v>92</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1837504</v>
+      </c>
+      <c r="E99" s="7">
+        <v>15623592</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" s="7">
+        <v>750</v>
+      </c>
+      <c r="L99" s="7">
+        <v>1181</v>
+      </c>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7">
+        <v>0</v>
+      </c>
+      <c r="P99" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>507</v>
+      </c>
+      <c r="R99" s="7">
+        <v>2465</v>
+      </c>
+      <c r="S99" s="10">
+        <v>2095.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="3">
+        <v>93</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7">
+        <v>111</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7">
+        <v>750</v>
+      </c>
+      <c r="L100" s="7">
+        <v>675</v>
+      </c>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7">
+        <v>0</v>
+      </c>
+      <c r="O100" s="7">
+        <v>0</v>
+      </c>
+      <c r="P100" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>443</v>
+      </c>
+      <c r="R100" s="7">
+        <v>1895</v>
+      </c>
+      <c r="S100" s="10">
+        <v>1610.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="3">
+        <v>94</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7">
+        <v>111</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7">
+        <v>750</v>
+      </c>
+      <c r="L101" s="7">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7">
+        <v>0</v>
+      </c>
+      <c r="O101" s="7">
+        <v>0</v>
+      </c>
+      <c r="P101" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>610</v>
+      </c>
+      <c r="R101" s="7">
+        <v>1378</v>
+      </c>
+      <c r="S101" s="10">
+        <v>1171.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="3">
+        <v>95</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7">
+        <v>3333</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J102" s="7">
+        <v>2923201</v>
+      </c>
+      <c r="K102" s="7">
+        <v>750</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7">
+        <v>0</v>
+      </c>
+      <c r="O102" s="7">
+        <v>0</v>
+      </c>
+      <c r="P102" s="7">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>1146</v>
+      </c>
+      <c r="R102" s="7">
+        <v>1973</v>
+      </c>
+      <c r="S102" s="10">
+        <v>1677.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="3">
+        <v>96</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7">
+        <v>1122</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J103" s="7">
+        <v>3594500</v>
+      </c>
+      <c r="K103" s="7">
+        <v>750</v>
+      </c>
+      <c r="L103" s="7">
+        <v>3797</v>
+      </c>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7">
+        <v>0</v>
+      </c>
+      <c r="O103" s="7">
+        <v>150</v>
+      </c>
+      <c r="P103" s="7">
+        <v>144</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>1843</v>
+      </c>
+      <c r="R103" s="7">
+        <v>6684</v>
+      </c>
+      <c r="S103" s="10">
+        <v>5681.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="3">
+        <v>97</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1838202</v>
+      </c>
+      <c r="E104" s="7">
+        <v>111</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7">
+        <v>750</v>
+      </c>
+      <c r="L104" s="7">
+        <v>675</v>
+      </c>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7">
+        <v>0</v>
+      </c>
+      <c r="O104" s="7">
+        <v>0</v>
+      </c>
+      <c r="P104" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>443</v>
+      </c>
+      <c r="R104" s="7">
+        <v>1895</v>
+      </c>
+      <c r="S104" s="10">
+        <v>1610.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="3">
+        <v>98</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7">
+        <v>2513901</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K105" s="7">
+        <v>900</v>
+      </c>
+      <c r="L105" s="7">
+        <v>675</v>
+      </c>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7">
+        <v>0</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0</v>
+      </c>
+      <c r="P105" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>763</v>
+      </c>
+      <c r="R105" s="7">
+        <v>2365</v>
+      </c>
+      <c r="S105" s="10">
+        <v>2010.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="3">
+        <v>99</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
+        <v>15659193</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K106" s="7">
+        <v>900</v>
+      </c>
+      <c r="L106" s="7">
+        <v>0</v>
+      </c>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7">
+        <v>0</v>
+      </c>
+      <c r="O106" s="7">
+        <v>0</v>
+      </c>
+      <c r="P106" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>570</v>
+      </c>
+      <c r="R106" s="7">
+        <v>1488</v>
+      </c>
+      <c r="S106" s="10">
+        <v>1264.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="3">
+        <v>100</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7">
+        <v>11524703</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K107" s="7">
+        <v>900</v>
+      </c>
+      <c r="L107" s="7">
+        <v>0</v>
+      </c>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7">
+        <v>0</v>
+      </c>
+      <c r="O107" s="7">
+        <v>750</v>
+      </c>
+      <c r="P107" s="7">
+        <v>182</v>
+      </c>
+      <c r="Q107" s="7">
+        <v>753</v>
+      </c>
+      <c r="R107" s="7">
+        <v>2585</v>
+      </c>
+      <c r="S107" s="10">
+        <v>2197.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="3">
+        <v>101</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="7">
+        <v>1838208</v>
+      </c>
+      <c r="E108" s="7">
+        <v>15570775</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K108" s="7">
+        <v>0</v>
+      </c>
+      <c r="L108" s="7">
+        <v>0</v>
+      </c>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7">
+        <v>0</v>
+      </c>
+      <c r="O108" s="7">
+        <v>750</v>
+      </c>
+      <c r="P108" s="7">
+        <v>82</v>
+      </c>
+      <c r="Q108" s="7">
+        <v>0</v>
+      </c>
+      <c r="R108" s="7">
+        <v>832</v>
+      </c>
+      <c r="S108" s="10">
+        <v>707.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="3">
+        <v>102</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7">
+        <v>15723876</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K109" s="7">
+        <v>900</v>
+      </c>
+      <c r="L109" s="7">
+        <v>2531</v>
+      </c>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7">
+        <v>0</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0</v>
+      </c>
+      <c r="P109" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q109" s="7">
+        <v>50</v>
+      </c>
+      <c r="R109" s="7">
+        <v>3490</v>
+      </c>
+      <c r="S109" s="10">
+        <v>2966.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="3">
+        <v>103</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7">
+        <v>2716102</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110" s="7">
+        <v>750</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0</v>
+      </c>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>0</v>
+      </c>
+      <c r="P110" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>0</v>
+      </c>
+      <c r="R110" s="7">
+        <v>750</v>
+      </c>
+      <c r="S110" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="3">
+        <v>104</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K111" s="7">
+        <v>750</v>
+      </c>
+      <c r="L111" s="7">
+        <v>0</v>
+      </c>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7">
+        <v>0</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0</v>
+      </c>
+      <c r="P111" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q111" s="7">
+        <v>990</v>
+      </c>
+      <c r="R111" s="7">
+        <v>1758</v>
+      </c>
+      <c r="S111" s="10">
+        <v>1494.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="3">
+        <v>105</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K112" s="7">
+        <v>750</v>
+      </c>
+      <c r="L112" s="7">
+        <v>675</v>
+      </c>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7">
+        <v>0</v>
+      </c>
+      <c r="O112" s="7">
+        <v>0</v>
+      </c>
+      <c r="P112" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q112" s="7">
+        <v>581</v>
+      </c>
+      <c r="R112" s="7">
+        <v>2024</v>
+      </c>
+      <c r="S112" s="10">
+        <v>1720.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="3">
+        <v>106</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7">
+        <v>15570775</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7">
+        <v>0</v>
+      </c>
+      <c r="L113" s="7">
+        <v>0</v>
+      </c>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7">
+        <v>0</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0</v>
+      </c>
+      <c r="P113" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="7">
+        <v>0</v>
+      </c>
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+      <c r="S113" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="3">
+        <v>107</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" s="7">
+        <v>1838216</v>
+      </c>
+      <c r="E114" s="7">
+        <v>142968</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114" s="7">
+        <v>750</v>
+      </c>
+      <c r="L114" s="7">
+        <v>0</v>
+      </c>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7">
+        <v>0</v>
+      </c>
+      <c r="O114" s="7">
+        <v>2025</v>
+      </c>
+      <c r="P114" s="7">
+        <v>166</v>
+      </c>
+      <c r="Q114" s="7">
+        <v>468</v>
+      </c>
+      <c r="R114" s="7">
+        <v>3409</v>
+      </c>
+      <c r="S114" s="10">
+        <v>2897.65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="3">
+        <v>108</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="7">
+        <v>18382219</v>
+      </c>
+      <c r="E115" s="7">
+        <v>5635305</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K115" s="7">
+        <v>750</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0</v>
+      </c>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7">
+        <v>0</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0</v>
+      </c>
+      <c r="P115" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>0</v>
+      </c>
+      <c r="R115" s="7">
+        <v>750</v>
+      </c>
+      <c r="S115" s="10">
+        <v>637.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="3">
+        <v>109</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7">
+        <v>15744223</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K116" s="7">
+        <v>900</v>
+      </c>
+      <c r="L116" s="7">
+        <v>0</v>
+      </c>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7">
+        <v>0</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0</v>
+      </c>
+      <c r="P116" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>1058</v>
+      </c>
+      <c r="R116" s="7">
+        <v>1958</v>
+      </c>
+      <c r="S116" s="10">
+        <v>1664.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="3">
+        <v>110</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="7">
+        <v>1838220</v>
+      </c>
+      <c r="E117" s="7">
+        <v>15660120</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K117" s="7">
+        <v>900</v>
+      </c>
+      <c r="L117" s="7">
+        <v>0</v>
+      </c>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7">
+        <v>0</v>
+      </c>
+      <c r="O117" s="7">
+        <v>0</v>
+      </c>
+      <c r="P117" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q117" s="7">
+        <v>819</v>
+      </c>
+      <c r="R117" s="7">
+        <v>1737</v>
+      </c>
+      <c r="S117" s="10">
+        <v>1476.45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="3">
+        <v>111</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="7">
+        <v>1838221</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" s="7">
+        <v>900</v>
+      </c>
+      <c r="L118" s="7">
+        <v>0</v>
+      </c>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7">
+        <v>0</v>
+      </c>
+      <c r="O118" s="7">
+        <v>0</v>
+      </c>
+      <c r="P118" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q118" s="7">
+        <v>990</v>
+      </c>
+      <c r="R118" s="7">
+        <v>1908</v>
+      </c>
+      <c r="S118" s="10">
+        <v>1621.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="3">
+        <v>112</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="7">
+        <v>1838222</v>
+      </c>
+      <c r="E119" s="7">
+        <v>15701573</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K119" s="7">
+        <v>900</v>
+      </c>
+      <c r="L119" s="7">
+        <v>0</v>
+      </c>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7">
+        <v>0</v>
+      </c>
+      <c r="O119" s="7">
+        <v>0</v>
+      </c>
+      <c r="P119" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q119" s="7">
+        <v>1745</v>
+      </c>
+      <c r="R119" s="7">
+        <v>2672</v>
+      </c>
+      <c r="S119" s="10">
+        <v>2271.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="3">
+        <v>113</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="7">
+        <v>1838223</v>
+      </c>
+      <c r="E120" s="7">
+        <v>15701568</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K120" s="7">
+        <v>900</v>
+      </c>
+      <c r="L120" s="7">
+        <v>0</v>
+      </c>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7">
+        <v>0</v>
+      </c>
+      <c r="O120" s="7">
+        <v>0</v>
+      </c>
+      <c r="P120" s="7">
+        <v>36</v>
+      </c>
+      <c r="Q120" s="7">
+        <v>1023</v>
+      </c>
+      <c r="R120" s="7">
+        <v>1959</v>
+      </c>
+      <c r="S120" s="10">
+        <v>1665.15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="3">
+        <v>114</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="7">
+        <v>1838225</v>
+      </c>
+      <c r="E121" s="7">
+        <v>149573</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K121" s="7">
+        <v>900</v>
+      </c>
+      <c r="L121" s="7">
+        <v>0</v>
+      </c>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7">
+        <v>0</v>
+      </c>
+      <c r="O121" s="7">
+        <v>750</v>
+      </c>
+      <c r="P121" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q121" s="7">
+        <v>1140</v>
+      </c>
+      <c r="R121" s="7">
+        <v>2808</v>
+      </c>
+      <c r="S121" s="10">
+        <v>2386.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="3">
+        <v>115</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="7">
+        <v>1838226</v>
+      </c>
+      <c r="E122" s="7">
+        <v>15709340</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7">
+        <v>900</v>
+      </c>
+      <c r="L122" s="7">
+        <v>506</v>
+      </c>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7">
+        <v>0</v>
+      </c>
+      <c r="O122" s="7">
+        <v>0</v>
+      </c>
+      <c r="P122" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q122" s="7">
+        <v>47</v>
+      </c>
+      <c r="R122" s="7">
+        <v>1471</v>
+      </c>
+      <c r="S122" s="10">
+        <v>1250.35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="3">
+        <v>116</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D123" s="7">
+        <v>1838227</v>
+      </c>
+      <c r="E123" s="7">
+        <v>11260903</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K123" s="7">
+        <v>900</v>
+      </c>
+      <c r="L123" s="7">
+        <v>675</v>
+      </c>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7">
+        <v>0</v>
+      </c>
+      <c r="O123" s="7">
+        <v>0</v>
+      </c>
+      <c r="P123" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q123" s="7">
+        <v>387</v>
+      </c>
+      <c r="R123" s="7">
+        <v>1971</v>
+      </c>
+      <c r="S123" s="10">
+        <v>1675.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="3">
+        <v>117</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" s="7">
+        <v>1838228</v>
+      </c>
+      <c r="E124" s="7">
+        <v>149573</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K124" s="7">
+        <v>0</v>
+      </c>
+      <c r="L124" s="7">
+        <v>0</v>
+      </c>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7">
+        <v>0</v>
+      </c>
+      <c r="O124" s="7">
+        <v>750</v>
+      </c>
+      <c r="P124" s="7">
+        <v>82</v>
+      </c>
+      <c r="Q124" s="7">
+        <v>0</v>
+      </c>
+      <c r="R124" s="7">
+        <v>832</v>
+      </c>
+      <c r="S124" s="10">
+        <v>707.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="3">
+        <v>118</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="7">
+        <v>1838229</v>
+      </c>
+      <c r="E125" s="7">
+        <v>15743855</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K125" s="7">
+        <v>900</v>
+      </c>
+      <c r="L125" s="7">
+        <v>0</v>
+      </c>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7">
+        <v>0</v>
+      </c>
+      <c r="O125" s="7">
+        <v>0</v>
+      </c>
+      <c r="P125" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q125" s="7">
+        <v>803</v>
+      </c>
+      <c r="R125" s="7">
+        <v>1730</v>
+      </c>
+      <c r="S125" s="10">
+        <v>1470.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="3">
+        <v>119</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7">
+        <v>15676482</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K126" s="7">
+        <v>750</v>
+      </c>
+      <c r="L126" s="7">
+        <v>591</v>
+      </c>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7">
+        <v>0</v>
+      </c>
+      <c r="O126" s="7">
+        <v>0</v>
+      </c>
+      <c r="P126" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q126" s="7">
+        <v>2064</v>
+      </c>
+      <c r="R126" s="7">
+        <v>3432</v>
+      </c>
+      <c r="S126" s="10">
+        <v>2917.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="3">
+        <v>120</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7">
+        <v>15564730</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K127" s="7">
+        <v>750</v>
+      </c>
+      <c r="L127" s="7">
+        <v>591</v>
+      </c>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7">
+        <v>0</v>
+      </c>
+      <c r="O127" s="7">
+        <v>0</v>
+      </c>
+      <c r="P127" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q127" s="7">
+        <v>366</v>
+      </c>
+      <c r="R127" s="7">
+        <v>1716</v>
+      </c>
+      <c r="S127" s="10">
+        <v>1458.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="3">
+        <v>121</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7">
+        <v>15702333</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K128" s="7">
+        <v>750</v>
+      </c>
+      <c r="L128" s="7">
+        <v>873</v>
+      </c>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7">
+        <v>0</v>
+      </c>
+      <c r="O128" s="7">
+        <v>0</v>
+      </c>
+      <c r="P128" s="7">
+        <v>164</v>
+      </c>
+      <c r="Q128" s="7">
+        <v>0</v>
+      </c>
+      <c r="R128" s="7">
+        <v>1787</v>
+      </c>
+      <c r="S128" s="10">
+        <v>1518.95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="3">
+        <v>122</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7">
+        <v>149573</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K129" s="7">
+        <v>0</v>
+      </c>
+      <c r="L129" s="7">
+        <v>0</v>
+      </c>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7">
+        <v>0</v>
+      </c>
+      <c r="O129" s="7">
+        <v>750</v>
+      </c>
+      <c r="P129" s="7">
+        <v>246</v>
+      </c>
+      <c r="Q129" s="7">
+        <v>0</v>
+      </c>
+      <c r="R129" s="7">
+        <v>996</v>
+      </c>
+      <c r="S129" s="10">
+        <v>846.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="3">
+        <v>123</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7">
+        <v>15743903</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K130" s="7">
+        <v>750</v>
+      </c>
+      <c r="L130" s="7">
+        <v>0</v>
+      </c>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7">
+        <v>0</v>
+      </c>
+      <c r="O130" s="7">
+        <v>0</v>
+      </c>
+      <c r="P130" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="7">
+        <v>1146</v>
+      </c>
+      <c r="R130" s="7">
+        <v>1896</v>
+      </c>
+      <c r="S130" s="10">
+        <v>1611.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="3">
+        <v>124</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="7">
+        <v>1838230</v>
+      </c>
+      <c r="E131" s="7">
+        <v>142750</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K131" s="7">
+        <v>750</v>
+      </c>
+      <c r="L131" s="7">
+        <v>1464</v>
+      </c>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7">
+        <v>0</v>
+      </c>
+      <c r="O131" s="7">
+        <v>0</v>
+      </c>
+      <c r="P131" s="7">
+        <v>173</v>
+      </c>
+      <c r="Q131" s="7">
+        <v>366</v>
+      </c>
+      <c r="R131" s="7">
+        <v>2753</v>
+      </c>
+      <c r="S131" s="10">
+        <v>2340.05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="3">
+        <v>125</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="7">
+        <v>1838236</v>
+      </c>
+      <c r="E132" s="7">
+        <v>15734390</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K132" s="7">
+        <v>750</v>
+      </c>
+      <c r="L132" s="7">
+        <v>0</v>
+      </c>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7">
+        <v>0</v>
+      </c>
+      <c r="O132" s="7">
+        <v>0</v>
+      </c>
+      <c r="P132" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="7">
+        <v>2135</v>
+      </c>
+      <c r="R132" s="7">
+        <v>2885</v>
+      </c>
+      <c r="S132" s="10">
+        <v>2452.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7">
+        <v>93000</v>
+      </c>
+      <c r="L133" s="7">
+        <v>79361</v>
+      </c>
+      <c r="M133" s="7">
+        <v>0</v>
+      </c>
+      <c r="N133" s="7">
+        <v>0</v>
+      </c>
+      <c r="O133" s="7">
+        <v>19226</v>
+      </c>
+      <c r="P133" s="7">
+        <v>10160</v>
+      </c>
+      <c r="Q133" s="7">
+        <v>86814</v>
+      </c>
+      <c r="R133" s="7">
+        <v>288561</v>
+      </c>
+      <c r="S133" s="10">
+        <v>245282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8">
+        <v>79050</v>
+      </c>
+      <c r="L134" s="8">
+        <v>67456.85</v>
+      </c>
+      <c r="M134" s="8">
+        <v>0</v>
+      </c>
+      <c r="N134" s="8">
+        <v>0</v>
+      </c>
+      <c r="O134" s="8">
+        <v>16342.1</v>
+      </c>
+      <c r="P134" s="8">
+        <v>8636</v>
+      </c>
+      <c r="Q134" s="8">
+        <v>73791.9</v>
+      </c>
+      <c r="R134" s="8">
+        <v>245276.85</v>
+      </c>
+      <c r="S134" s="11"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="B137" t="s">
+        <v>354</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -968,9 +8675,9 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A133:J133"/>
+    <mergeCell ref="A134:J134"/>
+    <mergeCell ref="B137:F137"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
